--- a/biology/Botanique/Frédéric-Louis_Allamand/Frédéric-Louis_Allamand.xlsx
+++ b/biology/Botanique/Frédéric-Louis_Allamand/Frédéric-Louis_Allamand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric-Louis_Allamand</t>
+          <t>Frédéric-Louis_Allamand</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frédéric-Louis Allamand, né vers le 5 février 1736 à Payerne dans le canton de Vaud en Suisse et mort après 1803, est un botaniste suisse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric-Louis_Allamand</t>
+          <t>Frédéric-Louis_Allamand</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se rend à Leyde aux Pays-Bas en 1749 pour vivre avec son oncle, Jean-Nicolas-Sébastien Allamand, professeur de philosophie et de mathématiques à l'université de Leyde et surtout botaniste de renom. 
 Frédéric-Louis commence des études de littérature à l'université de Leyde, mais les interrompt dès 1753 pour entreprendre des études de médecine. En 1760, il devient médecin de la marine hollandaise, ce qui l'amène à se rendre dans les colonies néerlandaises du Suriname et de Guyana. Il quitte ensuite la marine et devient médecin à la cour russe de Catherine II, à Saint-Pétersbourg. Il épouse en 1776 Adriana van Guericke. En 1793, il revient travailler à l'université de Leyde, où il est fait mention de son nom pour la dernière fois dans un document officiel de l'université en 1803. On ignore la date de son décès.
-Il correspond avec le naturaliste suédois, Carl von Linné, auquel il envoie un catalogue de plantes resté inédit, le “Genera plantarum Americanarum”, accompagné d'une lettre datée du 3 novembre 1770, dans laquelle il sollicite l'avis de Linné[1]. Il décrit lui-même plusieurs genres de plantes, et la plante Allamanda est nommée ainsi en référence à lui.
+Il correspond avec le naturaliste suédois, Carl von Linné, auquel il envoie un catalogue de plantes resté inédit, le “Genera plantarum Americanarum”, accompagné d'une lettre datée du 3 novembre 1770, dans laquelle il sollicite l'avis de Linné. Il décrit lui-même plusieurs genres de plantes, et la plante Allamanda est nommée ainsi en référence à lui.
 </t>
         </is>
       </c>
